--- a/datas/listenings.xlsx
+++ b/datas/listenings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarvar\Desktop\INHA\5th Semester\database design\team_project\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634C2D6D-15CC-49E7-8045-AD915CA9A713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E7AE0F-DF4B-44F0-AD67-B511F956CEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="75" windowWidth="5925" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10945" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11947" uniqueCount="1120">
   <si>
     <t>song_id</t>
   </si>
@@ -3713,10 +3713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5472"/>
+  <dimension ref="A1:C5973"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5940" workbookViewId="0">
+      <selection activeCell="F5966" sqref="F5966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63917,6 +63917,5517 @@
         <v>1028</v>
       </c>
     </row>
+    <row r="5473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5473">
+        <v>64</v>
+      </c>
+      <c r="B5473" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5473" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5474">
+        <v>64</v>
+      </c>
+      <c r="B5474" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5474" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5475">
+        <v>64</v>
+      </c>
+      <c r="B5475" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5475" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5476">
+        <v>64</v>
+      </c>
+      <c r="B5476" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5476" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5477">
+        <v>64</v>
+      </c>
+      <c r="B5477" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5477" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5478">
+        <v>64</v>
+      </c>
+      <c r="B5478" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5478" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="5479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5479">
+        <v>64</v>
+      </c>
+      <c r="B5479" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5479" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="5480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5480">
+        <v>64</v>
+      </c>
+      <c r="B5480" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5480" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5481">
+        <v>64</v>
+      </c>
+      <c r="B5481" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5481" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="5482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5482">
+        <v>64</v>
+      </c>
+      <c r="B5482" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5482" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5483">
+        <v>64</v>
+      </c>
+      <c r="B5483" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5483" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5484">
+        <v>64</v>
+      </c>
+      <c r="B5484" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5484" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5485">
+        <v>64</v>
+      </c>
+      <c r="B5485" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5485" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5486">
+        <v>64</v>
+      </c>
+      <c r="B5486" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5486" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="5487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5487">
+        <v>64</v>
+      </c>
+      <c r="B5487" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5487" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5488">
+        <v>64</v>
+      </c>
+      <c r="B5488" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5488" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5489">
+        <v>64</v>
+      </c>
+      <c r="B5489" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5489" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5490">
+        <v>64</v>
+      </c>
+      <c r="B5490" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5490" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5491">
+        <v>64</v>
+      </c>
+      <c r="B5491" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5491" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="5492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5492">
+        <v>64</v>
+      </c>
+      <c r="B5492" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5492" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5493">
+        <v>64</v>
+      </c>
+      <c r="B5493" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5493" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="5494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5494">
+        <v>64</v>
+      </c>
+      <c r="B5494" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5494" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5495">
+        <v>64</v>
+      </c>
+      <c r="B5495" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5495" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="5496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5496">
+        <v>64</v>
+      </c>
+      <c r="B5496" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5496" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5497">
+        <v>64</v>
+      </c>
+      <c r="B5497" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5497" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="5498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5498">
+        <v>64</v>
+      </c>
+      <c r="B5498" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5498" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5499">
+        <v>64</v>
+      </c>
+      <c r="B5499" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5499" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5500">
+        <v>64</v>
+      </c>
+      <c r="B5500" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5500" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5501">
+        <v>64</v>
+      </c>
+      <c r="B5501" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5501" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="5502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5502">
+        <v>64</v>
+      </c>
+      <c r="B5502" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5502" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5503">
+        <v>64</v>
+      </c>
+      <c r="B5503" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5503" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5504">
+        <v>64</v>
+      </c>
+      <c r="B5504" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5504" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5505">
+        <v>64</v>
+      </c>
+      <c r="B5505" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5505" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5506">
+        <v>64</v>
+      </c>
+      <c r="B5506" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5506" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="5507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5507">
+        <v>64</v>
+      </c>
+      <c r="B5507" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5507" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="5508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5508">
+        <v>64</v>
+      </c>
+      <c r="B5508" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5508" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="5509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5509">
+        <v>64</v>
+      </c>
+      <c r="B5509" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5509" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5510">
+        <v>64</v>
+      </c>
+      <c r="B5510" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5510" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5511">
+        <v>64</v>
+      </c>
+      <c r="B5511" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5511" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5512">
+        <v>64</v>
+      </c>
+      <c r="B5512" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5512" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5513">
+        <v>64</v>
+      </c>
+      <c r="B5513" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5513" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5514">
+        <v>64</v>
+      </c>
+      <c r="B5514" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5514" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5515">
+        <v>64</v>
+      </c>
+      <c r="B5515" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5515" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5516">
+        <v>64</v>
+      </c>
+      <c r="B5516" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5516" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5517">
+        <v>64</v>
+      </c>
+      <c r="B5517" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5517" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="5518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5518">
+        <v>64</v>
+      </c>
+      <c r="B5518" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5518" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5519">
+        <v>64</v>
+      </c>
+      <c r="B5519" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5519" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="5520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5520">
+        <v>64</v>
+      </c>
+      <c r="B5520" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5520" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5521">
+        <v>64</v>
+      </c>
+      <c r="B5521" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5521" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5522">
+        <v>64</v>
+      </c>
+      <c r="B5522" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5522" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5523">
+        <v>64</v>
+      </c>
+      <c r="B5523" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5523" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5524">
+        <v>64</v>
+      </c>
+      <c r="B5524" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5524" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5525">
+        <v>64</v>
+      </c>
+      <c r="B5525" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5525" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="5526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5526">
+        <v>64</v>
+      </c>
+      <c r="B5526" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5526" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5527">
+        <v>64</v>
+      </c>
+      <c r="B5527" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5527" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5528">
+        <v>64</v>
+      </c>
+      <c r="B5528" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5528" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5529">
+        <v>64</v>
+      </c>
+      <c r="B5529" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5529" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5530">
+        <v>64</v>
+      </c>
+      <c r="B5530" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5530" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5531">
+        <v>64</v>
+      </c>
+      <c r="B5531" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5531" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5532">
+        <v>64</v>
+      </c>
+      <c r="B5532" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5532" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5533">
+        <v>64</v>
+      </c>
+      <c r="B5533" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5533" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="5534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5534">
+        <v>64</v>
+      </c>
+      <c r="B5534" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5534" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5535">
+        <v>64</v>
+      </c>
+      <c r="B5535" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5535" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5536">
+        <v>64</v>
+      </c>
+      <c r="B5536" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5536" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5537">
+        <v>64</v>
+      </c>
+      <c r="B5537" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5537" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5538">
+        <v>64</v>
+      </c>
+      <c r="B5538" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5538" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5539">
+        <v>64</v>
+      </c>
+      <c r="B5539" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5539" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5540">
+        <v>64</v>
+      </c>
+      <c r="B5540" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5540" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5541">
+        <v>64</v>
+      </c>
+      <c r="B5541" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5541" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5542">
+        <v>64</v>
+      </c>
+      <c r="B5542" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5542" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5543">
+        <v>64</v>
+      </c>
+      <c r="B5543" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5543" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="5544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5544">
+        <v>64</v>
+      </c>
+      <c r="B5544" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5544" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5545">
+        <v>64</v>
+      </c>
+      <c r="B5545" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5545" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="5546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5546">
+        <v>64</v>
+      </c>
+      <c r="B5546" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5546" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5547">
+        <v>64</v>
+      </c>
+      <c r="B5547" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5547" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5548">
+        <v>64</v>
+      </c>
+      <c r="B5548" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5548" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5549">
+        <v>64</v>
+      </c>
+      <c r="B5549" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5549" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5550">
+        <v>64</v>
+      </c>
+      <c r="B5550" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5550" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5551">
+        <v>64</v>
+      </c>
+      <c r="B5551" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5551" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="5552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5552">
+        <v>64</v>
+      </c>
+      <c r="B5552" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5552" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5553">
+        <v>64</v>
+      </c>
+      <c r="B5553" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5553" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5554">
+        <v>64</v>
+      </c>
+      <c r="B5554" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5554" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="5555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5555">
+        <v>64</v>
+      </c>
+      <c r="B5555" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5555" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="5556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5556">
+        <v>64</v>
+      </c>
+      <c r="B5556" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5556" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5557">
+        <v>64</v>
+      </c>
+      <c r="B5557" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5557" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5558">
+        <v>64</v>
+      </c>
+      <c r="B5558" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5558" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="5559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5559">
+        <v>64</v>
+      </c>
+      <c r="B5559" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5559" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="5560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5560">
+        <v>64</v>
+      </c>
+      <c r="B5560" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5560" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="5561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5561">
+        <v>64</v>
+      </c>
+      <c r="B5561" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5561" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5562">
+        <v>64</v>
+      </c>
+      <c r="B5562" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5562" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="5563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5563">
+        <v>64</v>
+      </c>
+      <c r="B5563" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5563" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="5564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5564">
+        <v>64</v>
+      </c>
+      <c r="B5564" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5564" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="5565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5565">
+        <v>64</v>
+      </c>
+      <c r="B5565" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5565" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="5566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5566">
+        <v>64</v>
+      </c>
+      <c r="B5566" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5566" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5567">
+        <v>64</v>
+      </c>
+      <c r="B5567" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5567" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5568">
+        <v>64</v>
+      </c>
+      <c r="B5568" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5568" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="5569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5569">
+        <v>64</v>
+      </c>
+      <c r="B5569" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5569" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="5570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5570">
+        <v>64</v>
+      </c>
+      <c r="B5570" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5570" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5571">
+        <v>64</v>
+      </c>
+      <c r="B5571" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5571" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="5572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5572">
+        <v>64</v>
+      </c>
+      <c r="B5572" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5572" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5573">
+        <v>64</v>
+      </c>
+      <c r="B5573" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5573" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="5574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5574">
+        <v>64</v>
+      </c>
+      <c r="B5574" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5574" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5575">
+        <v>64</v>
+      </c>
+      <c r="B5575" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5575" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5576">
+        <v>64</v>
+      </c>
+      <c r="B5576" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5576" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="5577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5577">
+        <v>64</v>
+      </c>
+      <c r="B5577" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5577" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="5578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5578">
+        <v>64</v>
+      </c>
+      <c r="B5578" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5578" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="5579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5579">
+        <v>64</v>
+      </c>
+      <c r="B5579" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5579" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5580">
+        <v>64</v>
+      </c>
+      <c r="B5580" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5580" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5581">
+        <v>64</v>
+      </c>
+      <c r="B5581" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5581" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="5582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5582">
+        <v>64</v>
+      </c>
+      <c r="B5582" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5582" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5583">
+        <v>64</v>
+      </c>
+      <c r="B5583" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5583" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5584">
+        <v>64</v>
+      </c>
+      <c r="B5584" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5584" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5585">
+        <v>64</v>
+      </c>
+      <c r="B5585" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5585" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5586">
+        <v>64</v>
+      </c>
+      <c r="B5586" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5586" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5587">
+        <v>64</v>
+      </c>
+      <c r="B5587" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5587" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="5588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5588">
+        <v>64</v>
+      </c>
+      <c r="B5588" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5588" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5589">
+        <v>64</v>
+      </c>
+      <c r="B5589" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5589" s="3" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="5590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5590">
+        <v>64</v>
+      </c>
+      <c r="B5590" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5590" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="5591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5591">
+        <v>64</v>
+      </c>
+      <c r="B5591" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5591" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5592">
+        <v>64</v>
+      </c>
+      <c r="B5592" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5592" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5593">
+        <v>64</v>
+      </c>
+      <c r="B5593" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5593" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="5594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5594">
+        <v>64</v>
+      </c>
+      <c r="B5594" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5594" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5595">
+        <v>64</v>
+      </c>
+      <c r="B5595" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5595" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5596">
+        <v>64</v>
+      </c>
+      <c r="B5596" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5596" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="5597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5597">
+        <v>64</v>
+      </c>
+      <c r="B5597" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5597" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="5598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5598">
+        <v>64</v>
+      </c>
+      <c r="B5598" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5598" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5599">
+        <v>64</v>
+      </c>
+      <c r="B5599" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5599" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5600">
+        <v>64</v>
+      </c>
+      <c r="B5600" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5600" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="5601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5601">
+        <v>64</v>
+      </c>
+      <c r="B5601" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5601" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="5602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5602">
+        <v>64</v>
+      </c>
+      <c r="B5602" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5602" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5603">
+        <v>64</v>
+      </c>
+      <c r="B5603" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5603" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5604">
+        <v>64</v>
+      </c>
+      <c r="B5604" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5604" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5605">
+        <v>64</v>
+      </c>
+      <c r="B5605" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5605" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5606">
+        <v>64</v>
+      </c>
+      <c r="B5606" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5606" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="5607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5607">
+        <v>64</v>
+      </c>
+      <c r="B5607" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5607" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5608">
+        <v>64</v>
+      </c>
+      <c r="B5608" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5608" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5609">
+        <v>64</v>
+      </c>
+      <c r="B5609" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5609" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5610">
+        <v>64</v>
+      </c>
+      <c r="B5610" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5610" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5611">
+        <v>64</v>
+      </c>
+      <c r="B5611" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5611" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5612">
+        <v>64</v>
+      </c>
+      <c r="B5612" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5612" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5613">
+        <v>64</v>
+      </c>
+      <c r="B5613" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5613" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="5614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5614">
+        <v>64</v>
+      </c>
+      <c r="B5614" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5614" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5615">
+        <v>64</v>
+      </c>
+      <c r="B5615" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5615" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5616">
+        <v>64</v>
+      </c>
+      <c r="B5616" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5616" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5617">
+        <v>64</v>
+      </c>
+      <c r="B5617" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5617" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5618">
+        <v>64</v>
+      </c>
+      <c r="B5618" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5618" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5619">
+        <v>64</v>
+      </c>
+      <c r="B5619" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5619" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="5620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5620">
+        <v>64</v>
+      </c>
+      <c r="B5620" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5620" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5621">
+        <v>64</v>
+      </c>
+      <c r="B5621" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5621" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5622">
+        <v>64</v>
+      </c>
+      <c r="B5622" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5622" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5623">
+        <v>64</v>
+      </c>
+      <c r="B5623" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5623" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5624">
+        <v>64</v>
+      </c>
+      <c r="B5624" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5624" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5625">
+        <v>64</v>
+      </c>
+      <c r="B5625" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5625" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5626">
+        <v>64</v>
+      </c>
+      <c r="B5626" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5626" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5627">
+        <v>64</v>
+      </c>
+      <c r="B5627" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5627" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5628">
+        <v>64</v>
+      </c>
+      <c r="B5628" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5628" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5629">
+        <v>64</v>
+      </c>
+      <c r="B5629" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5629" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5630">
+        <v>64</v>
+      </c>
+      <c r="B5630" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5630" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5631">
+        <v>64</v>
+      </c>
+      <c r="B5631" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5631" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5632">
+        <v>64</v>
+      </c>
+      <c r="B5632" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5632" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5633">
+        <v>64</v>
+      </c>
+      <c r="B5633" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5633" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5634">
+        <v>64</v>
+      </c>
+      <c r="B5634" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5634" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5635">
+        <v>64</v>
+      </c>
+      <c r="B5635" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5635" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5636">
+        <v>64</v>
+      </c>
+      <c r="B5636" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5636" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5637">
+        <v>64</v>
+      </c>
+      <c r="B5637" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5637" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="5638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5638">
+        <v>64</v>
+      </c>
+      <c r="B5638" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5638" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5639">
+        <v>64</v>
+      </c>
+      <c r="B5639" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5639" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="5640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5640">
+        <v>64</v>
+      </c>
+      <c r="B5640" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5640" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5641">
+        <v>64</v>
+      </c>
+      <c r="B5641" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5641" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="5642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5642">
+        <v>64</v>
+      </c>
+      <c r="B5642" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5642" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="5643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5643">
+        <v>64</v>
+      </c>
+      <c r="B5643" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5643" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5644">
+        <v>64</v>
+      </c>
+      <c r="B5644" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5644" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5645">
+        <v>64</v>
+      </c>
+      <c r="B5645" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5645" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5646">
+        <v>64</v>
+      </c>
+      <c r="B5646" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5646" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5647">
+        <v>64</v>
+      </c>
+      <c r="B5647" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5647" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5648">
+        <v>64</v>
+      </c>
+      <c r="B5648" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5648" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="5649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5649">
+        <v>64</v>
+      </c>
+      <c r="B5649" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5649" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5650">
+        <v>64</v>
+      </c>
+      <c r="B5650" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5650" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5651">
+        <v>64</v>
+      </c>
+      <c r="B5651" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5651" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5652">
+        <v>64</v>
+      </c>
+      <c r="B5652" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5652" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="5653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5653">
+        <v>64</v>
+      </c>
+      <c r="B5653" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5653" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5654">
+        <v>64</v>
+      </c>
+      <c r="B5654" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5654" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5655">
+        <v>64</v>
+      </c>
+      <c r="B5655" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5655" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5656">
+        <v>64</v>
+      </c>
+      <c r="B5656" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5656" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5657">
+        <v>64</v>
+      </c>
+      <c r="B5657" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5657" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5658">
+        <v>64</v>
+      </c>
+      <c r="B5658" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5658" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5659">
+        <v>64</v>
+      </c>
+      <c r="B5659" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5659" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5660">
+        <v>64</v>
+      </c>
+      <c r="B5660" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5660" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5661">
+        <v>64</v>
+      </c>
+      <c r="B5661" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5661" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5662">
+        <v>64</v>
+      </c>
+      <c r="B5662" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5662" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="5663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5663">
+        <v>64</v>
+      </c>
+      <c r="B5663" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5663" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5664">
+        <v>64</v>
+      </c>
+      <c r="B5664" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5664" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5665">
+        <v>64</v>
+      </c>
+      <c r="B5665" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5665" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5666">
+        <v>64</v>
+      </c>
+      <c r="B5666" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5666" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5667">
+        <v>64</v>
+      </c>
+      <c r="B5667" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5667" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="5668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5668">
+        <v>64</v>
+      </c>
+      <c r="B5668" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5668" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5669">
+        <v>64</v>
+      </c>
+      <c r="B5669" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5669" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5670">
+        <v>64</v>
+      </c>
+      <c r="B5670" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5670" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5671">
+        <v>64</v>
+      </c>
+      <c r="B5671" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5671" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5672">
+        <v>64</v>
+      </c>
+      <c r="B5672" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5672" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5673">
+        <v>64</v>
+      </c>
+      <c r="B5673" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5673" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5674">
+        <v>64</v>
+      </c>
+      <c r="B5674" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5674" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5675">
+        <v>64</v>
+      </c>
+      <c r="B5675" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5675" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5676">
+        <v>64</v>
+      </c>
+      <c r="B5676" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5676" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5677">
+        <v>64</v>
+      </c>
+      <c r="B5677" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5677" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="5678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5678">
+        <v>64</v>
+      </c>
+      <c r="B5678" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5678" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="5679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5679">
+        <v>64</v>
+      </c>
+      <c r="B5679" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5679" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="5680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5680">
+        <v>64</v>
+      </c>
+      <c r="B5680" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5680" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5681">
+        <v>64</v>
+      </c>
+      <c r="B5681" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5681" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="5682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5682">
+        <v>64</v>
+      </c>
+      <c r="B5682" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5682" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="5683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5683">
+        <v>64</v>
+      </c>
+      <c r="B5683" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5683" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5684">
+        <v>64</v>
+      </c>
+      <c r="B5684" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5684" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="5685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5685">
+        <v>64</v>
+      </c>
+      <c r="B5685" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5685" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5686">
+        <v>64</v>
+      </c>
+      <c r="B5686" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5686" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="5687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5687">
+        <v>64</v>
+      </c>
+      <c r="B5687" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5687" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5688">
+        <v>64</v>
+      </c>
+      <c r="B5688" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5688" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5689">
+        <v>64</v>
+      </c>
+      <c r="B5689" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5689" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5690">
+        <v>64</v>
+      </c>
+      <c r="B5690" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5690" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5691">
+        <v>64</v>
+      </c>
+      <c r="B5691" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5691" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5692">
+        <v>64</v>
+      </c>
+      <c r="B5692" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5692" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5693">
+        <v>64</v>
+      </c>
+      <c r="B5693" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5693" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5694">
+        <v>64</v>
+      </c>
+      <c r="B5694" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5694" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="5695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5695">
+        <v>64</v>
+      </c>
+      <c r="B5695" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5695" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5696">
+        <v>64</v>
+      </c>
+      <c r="B5696" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5696" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="5697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5697">
+        <v>64</v>
+      </c>
+      <c r="B5697" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5697" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="5698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5698">
+        <v>64</v>
+      </c>
+      <c r="B5698" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5698" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="5699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5699">
+        <v>64</v>
+      </c>
+      <c r="B5699" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5699" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5700">
+        <v>64</v>
+      </c>
+      <c r="B5700" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5700" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5701">
+        <v>64</v>
+      </c>
+      <c r="B5701" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5701" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="5702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5702">
+        <v>64</v>
+      </c>
+      <c r="B5702" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5702" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="5703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5703">
+        <v>64</v>
+      </c>
+      <c r="B5703" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5703" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5704">
+        <v>64</v>
+      </c>
+      <c r="B5704" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5704" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5705">
+        <v>64</v>
+      </c>
+      <c r="B5705" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5705" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5706">
+        <v>64</v>
+      </c>
+      <c r="B5706" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5706" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5707">
+        <v>64</v>
+      </c>
+      <c r="B5707" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5707" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="5708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5708">
+        <v>64</v>
+      </c>
+      <c r="B5708" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5708" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5709">
+        <v>64</v>
+      </c>
+      <c r="B5709" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5709" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5710">
+        <v>64</v>
+      </c>
+      <c r="B5710" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5710" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5711">
+        <v>64</v>
+      </c>
+      <c r="B5711" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5711" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5712">
+        <v>64</v>
+      </c>
+      <c r="B5712" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5712" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5713">
+        <v>64</v>
+      </c>
+      <c r="B5713" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5713" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="5714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5714">
+        <v>64</v>
+      </c>
+      <c r="B5714" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5714" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5715">
+        <v>64</v>
+      </c>
+      <c r="B5715" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5715" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5716">
+        <v>64</v>
+      </c>
+      <c r="B5716" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5716" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="5717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5717">
+        <v>64</v>
+      </c>
+      <c r="B5717" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5717" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5718">
+        <v>64</v>
+      </c>
+      <c r="B5718" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5718" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="5719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5719">
+        <v>64</v>
+      </c>
+      <c r="B5719" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5719" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5720">
+        <v>64</v>
+      </c>
+      <c r="B5720" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5720" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5721">
+        <v>64</v>
+      </c>
+      <c r="B5721" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5721" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5722">
+        <v>64</v>
+      </c>
+      <c r="B5722" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5722" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5723">
+        <v>64</v>
+      </c>
+      <c r="B5723" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5723" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5724">
+        <v>64</v>
+      </c>
+      <c r="B5724" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5724" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="5725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5725">
+        <v>64</v>
+      </c>
+      <c r="B5725" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5725" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5726">
+        <v>64</v>
+      </c>
+      <c r="B5726" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5726" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5727">
+        <v>64</v>
+      </c>
+      <c r="B5727" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5727" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="5728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5728">
+        <v>64</v>
+      </c>
+      <c r="B5728" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5728" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="5729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5729">
+        <v>64</v>
+      </c>
+      <c r="B5729" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5729" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5730">
+        <v>64</v>
+      </c>
+      <c r="B5730" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5730" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5731">
+        <v>64</v>
+      </c>
+      <c r="B5731" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5731" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="5732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5732">
+        <v>64</v>
+      </c>
+      <c r="B5732" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5732" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5733">
+        <v>64</v>
+      </c>
+      <c r="B5733" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5733" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="5734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5734">
+        <v>64</v>
+      </c>
+      <c r="B5734" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5734" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5735">
+        <v>64</v>
+      </c>
+      <c r="B5735" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5735" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5736">
+        <v>64</v>
+      </c>
+      <c r="B5736" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5736" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5737">
+        <v>64</v>
+      </c>
+      <c r="B5737" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5737" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="5738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5738">
+        <v>64</v>
+      </c>
+      <c r="B5738" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5738" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5739">
+        <v>64</v>
+      </c>
+      <c r="B5739" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5739" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="5740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5740">
+        <v>64</v>
+      </c>
+      <c r="B5740" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5740" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="5741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5741">
+        <v>64</v>
+      </c>
+      <c r="B5741" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5741" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5742">
+        <v>64</v>
+      </c>
+      <c r="B5742" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5742" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="5743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5743">
+        <v>64</v>
+      </c>
+      <c r="B5743" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5743" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5744">
+        <v>64</v>
+      </c>
+      <c r="B5744" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5744" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5745">
+        <v>64</v>
+      </c>
+      <c r="B5745" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5745" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5746">
+        <v>64</v>
+      </c>
+      <c r="B5746" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5746" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5747">
+        <v>64</v>
+      </c>
+      <c r="B5747" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5747" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5748">
+        <v>64</v>
+      </c>
+      <c r="B5748" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5748" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5749">
+        <v>64</v>
+      </c>
+      <c r="B5749" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5749" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="5750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5750">
+        <v>64</v>
+      </c>
+      <c r="B5750" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5750" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5751">
+        <v>64</v>
+      </c>
+      <c r="B5751" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5751" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="5752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5752">
+        <v>64</v>
+      </c>
+      <c r="B5752" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5752" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="5753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5753">
+        <v>64</v>
+      </c>
+      <c r="B5753" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5753" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="5754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5754">
+        <v>64</v>
+      </c>
+      <c r="B5754" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5754" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5755">
+        <v>64</v>
+      </c>
+      <c r="B5755" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5755" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5756">
+        <v>64</v>
+      </c>
+      <c r="B5756" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5756" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5757">
+        <v>64</v>
+      </c>
+      <c r="B5757" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5757" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="5758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5758">
+        <v>64</v>
+      </c>
+      <c r="B5758" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5758" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5759">
+        <v>64</v>
+      </c>
+      <c r="B5759" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5759" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="5760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5760">
+        <v>64</v>
+      </c>
+      <c r="B5760" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5760" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5761">
+        <v>64</v>
+      </c>
+      <c r="B5761" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5761" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5762">
+        <v>64</v>
+      </c>
+      <c r="B5762" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5762" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="5763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5763">
+        <v>64</v>
+      </c>
+      <c r="B5763" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5763" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="5764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5764">
+        <v>64</v>
+      </c>
+      <c r="B5764" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5764" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="5765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5765">
+        <v>64</v>
+      </c>
+      <c r="B5765" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5765" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5766">
+        <v>64</v>
+      </c>
+      <c r="B5766" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5766" s="3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="5767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5767">
+        <v>64</v>
+      </c>
+      <c r="B5767" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5767" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5768">
+        <v>64</v>
+      </c>
+      <c r="B5768" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5768" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5769">
+        <v>64</v>
+      </c>
+      <c r="B5769" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5769" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5770">
+        <v>64</v>
+      </c>
+      <c r="B5770" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5770" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5771">
+        <v>64</v>
+      </c>
+      <c r="B5771" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5771" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5772">
+        <v>64</v>
+      </c>
+      <c r="B5772" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5772" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5773">
+        <v>64</v>
+      </c>
+      <c r="B5773" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5773" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5774">
+        <v>64</v>
+      </c>
+      <c r="B5774" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5774" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5775">
+        <v>64</v>
+      </c>
+      <c r="B5775" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5775" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="5776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5776">
+        <v>64</v>
+      </c>
+      <c r="B5776" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5776" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5777">
+        <v>64</v>
+      </c>
+      <c r="B5777" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5777" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="5778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5778">
+        <v>64</v>
+      </c>
+      <c r="B5778" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5778" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5779">
+        <v>64</v>
+      </c>
+      <c r="B5779" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5779" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="5780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5780">
+        <v>64</v>
+      </c>
+      <c r="B5780" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5780" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5781">
+        <v>64</v>
+      </c>
+      <c r="B5781" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5781" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5782">
+        <v>64</v>
+      </c>
+      <c r="B5782" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5782" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="5783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5783">
+        <v>64</v>
+      </c>
+      <c r="B5783" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5783" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="5784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5784">
+        <v>64</v>
+      </c>
+      <c r="B5784" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5784" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5785">
+        <v>64</v>
+      </c>
+      <c r="B5785" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5785" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5786">
+        <v>64</v>
+      </c>
+      <c r="B5786" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5786" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5787">
+        <v>64</v>
+      </c>
+      <c r="B5787" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5787" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5788">
+        <v>64</v>
+      </c>
+      <c r="B5788" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5788" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="5789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5789">
+        <v>64</v>
+      </c>
+      <c r="B5789" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5789" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5790">
+        <v>64</v>
+      </c>
+      <c r="B5790" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5790" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5791">
+        <v>64</v>
+      </c>
+      <c r="B5791" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5791" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="5792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5792">
+        <v>64</v>
+      </c>
+      <c r="B5792" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5792" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5793">
+        <v>64</v>
+      </c>
+      <c r="B5793" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5793" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="5794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5794">
+        <v>64</v>
+      </c>
+      <c r="B5794" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5794" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5795">
+        <v>64</v>
+      </c>
+      <c r="B5795" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5795" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5796">
+        <v>64</v>
+      </c>
+      <c r="B5796" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5796" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="5797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5797">
+        <v>64</v>
+      </c>
+      <c r="B5797" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5797" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5798">
+        <v>64</v>
+      </c>
+      <c r="B5798" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5798" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5799">
+        <v>64</v>
+      </c>
+      <c r="B5799" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5799" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5800">
+        <v>64</v>
+      </c>
+      <c r="B5800" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5800" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="5801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5801">
+        <v>64</v>
+      </c>
+      <c r="B5801" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5801" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5802">
+        <v>64</v>
+      </c>
+      <c r="B5802" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5802" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5803">
+        <v>64</v>
+      </c>
+      <c r="B5803" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5803" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5804">
+        <v>64</v>
+      </c>
+      <c r="B5804" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5804" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="5805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5805">
+        <v>64</v>
+      </c>
+      <c r="B5805" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5805" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="5806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5806">
+        <v>64</v>
+      </c>
+      <c r="B5806" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5806" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5807">
+        <v>64</v>
+      </c>
+      <c r="B5807" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5807" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5808">
+        <v>64</v>
+      </c>
+      <c r="B5808" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5808" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="5809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5809">
+        <v>64</v>
+      </c>
+      <c r="B5809" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5809" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5810">
+        <v>64</v>
+      </c>
+      <c r="B5810" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5810" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5811">
+        <v>64</v>
+      </c>
+      <c r="B5811" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5811" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="5812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5812">
+        <v>64</v>
+      </c>
+      <c r="B5812" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5812" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5813">
+        <v>64</v>
+      </c>
+      <c r="B5813" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5813" s="3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="5814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5814">
+        <v>64</v>
+      </c>
+      <c r="B5814" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5814" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5815">
+        <v>64</v>
+      </c>
+      <c r="B5815" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5815" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5816">
+        <v>64</v>
+      </c>
+      <c r="B5816" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5816" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="5817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5817">
+        <v>64</v>
+      </c>
+      <c r="B5817" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5817" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5818">
+        <v>64</v>
+      </c>
+      <c r="B5818" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5818" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5819">
+        <v>64</v>
+      </c>
+      <c r="B5819" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5819" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="5820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5820">
+        <v>64</v>
+      </c>
+      <c r="B5820" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5820" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="5821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5821">
+        <v>64</v>
+      </c>
+      <c r="B5821" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5821" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5822">
+        <v>64</v>
+      </c>
+      <c r="B5822" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5822" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5823">
+        <v>64</v>
+      </c>
+      <c r="B5823" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5823" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="5824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5824">
+        <v>64</v>
+      </c>
+      <c r="B5824" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5824" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="5825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5825">
+        <v>64</v>
+      </c>
+      <c r="B5825" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5825" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5826">
+        <v>64</v>
+      </c>
+      <c r="B5826" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5826" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5827">
+        <v>64</v>
+      </c>
+      <c r="B5827" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5827" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="5828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5828">
+        <v>64</v>
+      </c>
+      <c r="B5828" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5828" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="5829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5829">
+        <v>64</v>
+      </c>
+      <c r="B5829" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5829" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="5830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5830">
+        <v>64</v>
+      </c>
+      <c r="B5830" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5830" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="5831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5831">
+        <v>64</v>
+      </c>
+      <c r="B5831" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5831" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5832">
+        <v>64</v>
+      </c>
+      <c r="B5832" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5832" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="5833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5833">
+        <v>64</v>
+      </c>
+      <c r="B5833" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5833" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="5834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5834">
+        <v>64</v>
+      </c>
+      <c r="B5834" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5834" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5835">
+        <v>64</v>
+      </c>
+      <c r="B5835" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5835" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="5836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5836">
+        <v>64</v>
+      </c>
+      <c r="B5836" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5836" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5837">
+        <v>64</v>
+      </c>
+      <c r="B5837" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5837" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5838">
+        <v>64</v>
+      </c>
+      <c r="B5838" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5838" s="3" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5839">
+        <v>64</v>
+      </c>
+      <c r="B5839" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5839" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5840">
+        <v>64</v>
+      </c>
+      <c r="B5840" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5840" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="5841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5841">
+        <v>64</v>
+      </c>
+      <c r="B5841" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5841" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5842">
+        <v>64</v>
+      </c>
+      <c r="B5842" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5842" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5843">
+        <v>64</v>
+      </c>
+      <c r="B5843" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5843" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5844">
+        <v>64</v>
+      </c>
+      <c r="B5844" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5844" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="5845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5845">
+        <v>64</v>
+      </c>
+      <c r="B5845" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5845" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5846">
+        <v>64</v>
+      </c>
+      <c r="B5846" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5846" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5847">
+        <v>64</v>
+      </c>
+      <c r="B5847" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5847" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="5848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5848">
+        <v>64</v>
+      </c>
+      <c r="B5848" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5848" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="5849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5849">
+        <v>64</v>
+      </c>
+      <c r="B5849" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5849" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="5850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5850">
+        <v>64</v>
+      </c>
+      <c r="B5850" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5850" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="5851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5851">
+        <v>64</v>
+      </c>
+      <c r="B5851" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5851" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="5852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5852">
+        <v>64</v>
+      </c>
+      <c r="B5852" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5852" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5853">
+        <v>64</v>
+      </c>
+      <c r="B5853" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5853" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5854">
+        <v>64</v>
+      </c>
+      <c r="B5854" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5854" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5855">
+        <v>64</v>
+      </c>
+      <c r="B5855" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5855" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5856" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5856">
+        <v>64</v>
+      </c>
+      <c r="B5856" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5856" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5857" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5857">
+        <v>64</v>
+      </c>
+      <c r="B5857" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5857" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="5858" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5858">
+        <v>64</v>
+      </c>
+      <c r="B5858" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5858" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5859">
+        <v>64</v>
+      </c>
+      <c r="B5859" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5859" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5860">
+        <v>64</v>
+      </c>
+      <c r="B5860" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5860" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5861">
+        <v>64</v>
+      </c>
+      <c r="B5861" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5861" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5862">
+        <v>64</v>
+      </c>
+      <c r="B5862" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5862" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="5863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5863">
+        <v>64</v>
+      </c>
+      <c r="B5863" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5863" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5864">
+        <v>64</v>
+      </c>
+      <c r="B5864" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5864" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="5865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5865">
+        <v>64</v>
+      </c>
+      <c r="B5865" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5865" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="5866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5866">
+        <v>64</v>
+      </c>
+      <c r="B5866" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5866" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5867">
+        <v>64</v>
+      </c>
+      <c r="B5867" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5867" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="5868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5868">
+        <v>64</v>
+      </c>
+      <c r="B5868" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5868" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5869">
+        <v>64</v>
+      </c>
+      <c r="B5869" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5869" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5870">
+        <v>64</v>
+      </c>
+      <c r="B5870" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5870" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5871">
+        <v>64</v>
+      </c>
+      <c r="B5871" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5871" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="5872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5872">
+        <v>64</v>
+      </c>
+      <c r="B5872" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5872" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5873">
+        <v>64</v>
+      </c>
+      <c r="B5873" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5873" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5874">
+        <v>64</v>
+      </c>
+      <c r="B5874" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5874" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5875">
+        <v>64</v>
+      </c>
+      <c r="B5875" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5875" s="3" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="5876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5876">
+        <v>64</v>
+      </c>
+      <c r="B5876" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5876" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5877">
+        <v>64</v>
+      </c>
+      <c r="B5877" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5877" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="5878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5878">
+        <v>64</v>
+      </c>
+      <c r="B5878" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5878" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="5879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5879">
+        <v>64</v>
+      </c>
+      <c r="B5879" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5879" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5880">
+        <v>64</v>
+      </c>
+      <c r="B5880" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5880" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5881">
+        <v>64</v>
+      </c>
+      <c r="B5881" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5881" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="5882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5882">
+        <v>64</v>
+      </c>
+      <c r="B5882" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5882" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="5883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5883">
+        <v>64</v>
+      </c>
+      <c r="B5883" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5883" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5884">
+        <v>64</v>
+      </c>
+      <c r="B5884" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5884" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="5885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5885">
+        <v>64</v>
+      </c>
+      <c r="B5885" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5885" s="3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5886">
+        <v>64</v>
+      </c>
+      <c r="B5886" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5886" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="5887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5887">
+        <v>64</v>
+      </c>
+      <c r="B5887" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5887" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="5888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5888">
+        <v>64</v>
+      </c>
+      <c r="B5888" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5888" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="5889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5889">
+        <v>64</v>
+      </c>
+      <c r="B5889" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5889" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5890">
+        <v>64</v>
+      </c>
+      <c r="B5890" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5890" s="3" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="5891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5891">
+        <v>64</v>
+      </c>
+      <c r="B5891" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5891" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5892">
+        <v>64</v>
+      </c>
+      <c r="B5892" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5892" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="5893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5893">
+        <v>64</v>
+      </c>
+      <c r="B5893" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5893" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5894">
+        <v>64</v>
+      </c>
+      <c r="B5894" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5894" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5895">
+        <v>64</v>
+      </c>
+      <c r="B5895" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5895" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="5896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5896">
+        <v>64</v>
+      </c>
+      <c r="B5896" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5896" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5897">
+        <v>64</v>
+      </c>
+      <c r="B5897" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5897" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="5898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5898">
+        <v>64</v>
+      </c>
+      <c r="B5898" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5898" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5899">
+        <v>64</v>
+      </c>
+      <c r="B5899" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5899" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="5900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5900">
+        <v>64</v>
+      </c>
+      <c r="B5900" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5900" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="5901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5901">
+        <v>64</v>
+      </c>
+      <c r="B5901" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5901" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5902">
+        <v>64</v>
+      </c>
+      <c r="B5902" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5902" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5903">
+        <v>64</v>
+      </c>
+      <c r="B5903" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5903" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="5904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5904">
+        <v>64</v>
+      </c>
+      <c r="B5904" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5904" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5905">
+        <v>64</v>
+      </c>
+      <c r="B5905" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5905" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="5906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5906">
+        <v>64</v>
+      </c>
+      <c r="B5906" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5906" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="5907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5907">
+        <v>64</v>
+      </c>
+      <c r="B5907" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5907" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5908">
+        <v>64</v>
+      </c>
+      <c r="B5908" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5908" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5909">
+        <v>64</v>
+      </c>
+      <c r="B5909" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5909" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5910">
+        <v>64</v>
+      </c>
+      <c r="B5910" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5910" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5911">
+        <v>64</v>
+      </c>
+      <c r="B5911" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5911" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="5912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5912">
+        <v>64</v>
+      </c>
+      <c r="B5912" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5912" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5913">
+        <v>64</v>
+      </c>
+      <c r="B5913" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5913" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5914">
+        <v>64</v>
+      </c>
+      <c r="B5914" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5914" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5915">
+        <v>64</v>
+      </c>
+      <c r="B5915" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5915" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5916">
+        <v>64</v>
+      </c>
+      <c r="B5916" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5916" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5917">
+        <v>64</v>
+      </c>
+      <c r="B5917" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5917" s="3" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5918">
+        <v>64</v>
+      </c>
+      <c r="B5918" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5918" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5919">
+        <v>64</v>
+      </c>
+      <c r="B5919" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5919" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="5920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5920">
+        <v>64</v>
+      </c>
+      <c r="B5920" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5920" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5921">
+        <v>64</v>
+      </c>
+      <c r="B5921" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5921" s="3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="5922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5922">
+        <v>64</v>
+      </c>
+      <c r="B5922" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5922" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="5923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5923">
+        <v>64</v>
+      </c>
+      <c r="B5923" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5923" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5924">
+        <v>64</v>
+      </c>
+      <c r="B5924" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5924" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5925">
+        <v>64</v>
+      </c>
+      <c r="B5925" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5925" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5926">
+        <v>64</v>
+      </c>
+      <c r="B5926" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5926" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5927">
+        <v>64</v>
+      </c>
+      <c r="B5927" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5927" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5928">
+        <v>64</v>
+      </c>
+      <c r="B5928" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5928" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="5929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5929">
+        <v>64</v>
+      </c>
+      <c r="B5929" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5929" s="3" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="5930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5930">
+        <v>64</v>
+      </c>
+      <c r="B5930" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5930" s="3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="5931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5931">
+        <v>64</v>
+      </c>
+      <c r="B5931" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5931" s="3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="5932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5932">
+        <v>64</v>
+      </c>
+      <c r="B5932" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5932" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="5933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5933">
+        <v>64</v>
+      </c>
+      <c r="B5933" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5933" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5934">
+        <v>64</v>
+      </c>
+      <c r="B5934" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5934" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5935">
+        <v>64</v>
+      </c>
+      <c r="B5935" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5935" s="3" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5936">
+        <v>64</v>
+      </c>
+      <c r="B5936" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5936" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5937">
+        <v>64</v>
+      </c>
+      <c r="B5937" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5937" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5938">
+        <v>64</v>
+      </c>
+      <c r="B5938" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5938" s="3" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="5939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5939">
+        <v>64</v>
+      </c>
+      <c r="B5939" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5939" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5940">
+        <v>64</v>
+      </c>
+      <c r="B5940" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5940" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="5941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5941">
+        <v>64</v>
+      </c>
+      <c r="B5941" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5941" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5942">
+        <v>64</v>
+      </c>
+      <c r="B5942" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5942" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="5943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5943">
+        <v>64</v>
+      </c>
+      <c r="B5943" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5943" s="3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="5944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5944">
+        <v>64</v>
+      </c>
+      <c r="B5944" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5944" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5945">
+        <v>64</v>
+      </c>
+      <c r="B5945" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5945" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="5946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5946">
+        <v>64</v>
+      </c>
+      <c r="B5946" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5946" s="3" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5947">
+        <v>64</v>
+      </c>
+      <c r="B5947" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5947" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="5948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5948">
+        <v>64</v>
+      </c>
+      <c r="B5948" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5948" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="5949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5949">
+        <v>64</v>
+      </c>
+      <c r="B5949" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5949" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5950">
+        <v>64</v>
+      </c>
+      <c r="B5950" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5950" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5951">
+        <v>64</v>
+      </c>
+      <c r="B5951" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5951" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="5952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5952">
+        <v>64</v>
+      </c>
+      <c r="B5952" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5952" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5953">
+        <v>64</v>
+      </c>
+      <c r="B5953" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5953" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5954">
+        <v>64</v>
+      </c>
+      <c r="B5954" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5954" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="5955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5955">
+        <v>64</v>
+      </c>
+      <c r="B5955" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5955" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5956">
+        <v>64</v>
+      </c>
+      <c r="B5956" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5956" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="5957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5957">
+        <v>64</v>
+      </c>
+      <c r="B5957" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5957" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="5958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5958">
+        <v>64</v>
+      </c>
+      <c r="B5958" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5958" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5959">
+        <v>64</v>
+      </c>
+      <c r="B5959" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5959" s="3" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="5960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5960">
+        <v>64</v>
+      </c>
+      <c r="B5960" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5960" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="5961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5961">
+        <v>64</v>
+      </c>
+      <c r="B5961" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5961" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5962">
+        <v>64</v>
+      </c>
+      <c r="B5962" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5962" s="3" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="5963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5963">
+        <v>64</v>
+      </c>
+      <c r="B5963" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5963" s="3" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5964">
+        <v>64</v>
+      </c>
+      <c r="B5964" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5964" s="3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5965">
+        <v>64</v>
+      </c>
+      <c r="B5965" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5965" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="5966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5966">
+        <v>64</v>
+      </c>
+      <c r="B5966" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5966" s="3" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="5967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5967">
+        <v>64</v>
+      </c>
+      <c r="B5967" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5967" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="5968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5968">
+        <v>64</v>
+      </c>
+      <c r="B5968" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5968" s="3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5969">
+        <v>64</v>
+      </c>
+      <c r="B5969" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5969" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5970">
+        <v>64</v>
+      </c>
+      <c r="B5970" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5970" s="3" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="5971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5971">
+        <v>64</v>
+      </c>
+      <c r="B5971" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5971" s="3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="5972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5972">
+        <v>64</v>
+      </c>
+      <c r="B5972" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5972" s="3" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="5973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5973">
+        <v>64</v>
+      </c>
+      <c r="B5973" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5973" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
